--- a/scripts/Scenarios.xlsx
+++ b/scripts/Scenarios.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17805" windowHeight="5310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17805" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="scenario1" sheetId="1" r:id="rId1"/>
-    <sheet name="scenario2" sheetId="2" r:id="rId2"/>
+    <sheet name="scenario1" sheetId="3" r:id="rId1"/>
+    <sheet name="scenario12" sheetId="1" r:id="rId2"/>
+    <sheet name="scenario2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>Description</t>
   </si>
@@ -39,9 +39,6 @@
     <t>enter</t>
   </si>
   <si>
-    <t>//*[@id='username']</t>
-  </si>
-  <si>
     <t>enter 'manager' in passwordenter</t>
   </si>
   <si>
@@ -54,10 +51,13 @@
     <t>click</t>
   </si>
   <si>
-    <t>//*[@id='loginButton']</t>
-  </si>
-  <si>
-    <t>//*[@name='pwd']</t>
+    <t>ID_username</t>
+  </si>
+  <si>
+    <t>NAME_pwd</t>
+  </si>
+  <si>
+    <t>XPATH_//*[@id='loginButton']</t>
   </si>
 </sst>
 </file>
@@ -88,17 +88,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -107,8 +122,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,16 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,32 +461,86 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
         <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -481,17 +549,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,33 +587,37 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
